--- a/Sổ làm việc1.xlsx
+++ b/Sổ làm việc1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shanight-my.sharepoint.com/personal/shoura_shanight_onmicrosoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án BackEnd\DoAnBackEndNhom3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="658" documentId="8_{CE550E73-D752-4B62-AC1C-01863D2DB332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B04B1BA-3950-4A0E-97DD-1F68A5059425}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67068DB0-D340-41D8-AC6D-FED4030556CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B03C2CD-7326-4B0D-9658-580207B8A51F}"/>
   </bookViews>
@@ -129,66 +129,18 @@
     <t>img/ID2.2</t>
   </si>
   <si>
-    <t>"For the precautions and the list of currently available areas for international delivery"
-&lt;br&gt;
-"For customers residing outside of available areas for international delivery, our products are available at GeekJack as well."
-"The merch sales on Geek Jack will begin at 18 PM (JST), December 26, 2022. Please wait for a little more."</t>
-  </si>
-  <si>
-    <t>"For the precautions and the list of currently available areas for international delivery"
-&lt;br&gt;
-"For customers residing outside of available areas for international delivery, our products are available at GeekJack as well."
-"The merch sales on Geek Jack will begin at 18 PM (JST), February 27, 2023. Please wait for a little more."</t>
-  </si>
-  <si>
-    <t>"For the precautions and the list of currently available areas for international delivery"
-&lt;br&gt;
-"For customers residing outside of available areas for international delivery, our products are available at GeekJack as well."
-&lt;br&gt;
-"The merch sales on Geek Jack will begin at 18 PM (JST), February 27, 2023. Please wait for a little more."</t>
-  </si>
-  <si>
-    <t>"In case you purchased a product together with the made-to-order products or other products with the specified shipping period, your parcel will be shipped once all the purchased products are ready to be shipped."
-&lt;br&gt;
-"Product image for illustration purposes only. Actual product may vary."
-&lt;br&gt;
-"Actual product color may vary depending on your display of use."
-&lt;br&gt;
-"If the product quota is reached, the sales may end without any prior notice."
-&lt;br&gt;
-"Please contact us &lt;a href=""&gt;here&lt;/a&gt; for the inquiries regarding exchanges and damaged products."
-&lt;br&gt;
-"We do not accept any cancel request once the transaction has been made."
-&lt;br&gt;
-"If you live in the US, our services are intended for general audiences and are not targeted at children under the age of 13"</t>
-  </si>
-  <si>
     <t>hololive friends with u Shirakami Fubuki</t>
   </si>
   <si>
     <t>img/ID3.2</t>
   </si>
   <si>
-    <t>"For the precautions and the list of currently available areas for international delivery"
-&lt;br&gt;
-"For customers residing outside of available areas for international delivery, our products are available at GeekJack as well."
-&lt;br&gt;
-"The merch sales on Geek Jack will begin at 6 PM (JST), May 26, 2023. Please wait for a little more."</t>
-  </si>
-  <si>
     <t>hololive friends with u Gawr Gura</t>
   </si>
   <si>
     <t>img/ID4.2</t>
   </si>
   <si>
-    <t>"For the precautions and the list of currently available areas for international delivery"
-&lt;br&gt;
-"For customers residing outside of available areas for international delivery, our products are available at GeekJack as well."
-&lt;br&gt;
-"The merch sales on Geek Jack will begin at 6 PM (JST), October 27, 2023. Please wait for a little more."</t>
-  </si>
-  <si>
     <t>hololive friends with u Watson Amelia</t>
   </si>
   <si>
@@ -201,13 +153,6 @@
     <t>img/ID6.2</t>
   </si>
   <si>
-    <t>"For the precautions and the list of currently available areas for international delivery"
-&lt;br&gt;
-"For customers residing outside of available areas for international delivery, our products are available at GeekJack as well."
-&lt;br&gt;
-"The merch sales on Geek Jack will begin at 6 PM (JST), July 14, 2023. Please wait for a little more."</t>
-  </si>
-  <si>
     <t>Starting Voice - Koseki Bijou</t>
   </si>
   <si>
@@ -217,19 +162,6 @@
     <t>img/ID7.2</t>
   </si>
   <si>
-    <t>"Content"
-&lt;br&gt;
-"Self-introduction"
-&lt;br&gt;
-"Good Morning Voice" 
-&lt;br&gt;
-"Good Night Voice"
-&lt;br&gt;
-"Notification Voice"
-&lt;br&gt;
-"Unique Short Voice"</t>
-  </si>
-  <si>
     <t>¥2,000</t>
   </si>
   <si>
@@ -263,12 +195,6 @@
     <t>img/ID12.2</t>
   </si>
   <si>
-    <t>"For the precautions and the list of currently available areas for international delivery"
-&lt;br&gt;
-"For customers residing outside of available areas for international delivery, our products are available at GeekJack as well."
-"The merch sales on Geek Jack will begin at 6 PM (JST), May 26, 2023. Please wait for a little more."</t>
-  </si>
-  <si>
     <t>Starting Voice - Juufuutei Raden</t>
   </si>
   <si>
@@ -365,13 +291,6 @@
     <t>img/ID20.1</t>
   </si>
   <si>
-    <t>"For the precautions and the list of currently available areas for international delivery"
-&lt;br&gt;
-"For customers residing outside of available areas for international delivery, our products are available at GeekJack as well."
-&lt;br&gt;
-"The merch sales on Geek Jack will begin at 18 PM (JST), March 27, 2023. Please wait for a little more."</t>
-  </si>
-  <si>
     <t>hololive friends with u Yuzuki Choco</t>
   </si>
   <si>
@@ -441,26 +360,12 @@
     <t>img/ID42.1</t>
   </si>
   <si>
-    <t>"For the precautions and the list of currently available areas for international delivery"
-&lt;br&gt;
-"For customers residing outside of available areas for international delivery, our products are available at GeekJack as well."
-&lt;br&gt;
-"The merch sales on Geek Jack will begin at 18 PM (JST), December 26, 2022. Please wait for a little more."</t>
-  </si>
-  <si>
     <t>hololive friends with u Oozora Subaru</t>
   </si>
   <si>
     <t>img/ID43.1</t>
   </si>
   <si>
-    <t>"For the precautions and the list of currently available areas for international delivery"
-&lt;br&gt;
-"For customers residing outside of available areas for international delivery, our products are available at GeekJack as well."
-&lt;br&gt;
-"The merch sales on Geek Jack will begin at 6 PM (JST), April 27, 2023. Please wait for a little more."</t>
-  </si>
-  <si>
     <t>hololive friends with u Nakiri Ayame</t>
   </si>
   <si>
@@ -524,13 +429,6 @@
     <t>img/ID33.2</t>
   </si>
   <si>
-    <t>"For the precautions and the list of currently available areas for international delivery"
-&lt;br&gt;
-"For customers residing outside of available areas for international delivery, our products are available at GeekJack as well."
-&lt;br&gt;
-"The merch sales on Geek Jack will begin at 6 PM (JST), November 27, 2023. Please wait for a little more."</t>
-  </si>
-  <si>
     <t>hololive friends with u Kaela Kovalskia</t>
   </si>
   <si>
@@ -543,485 +441,587 @@
     <t>img/ID35.2</t>
   </si>
   <si>
-    <t>"For the precautions and the list of currently available areas for international delivery"
-&lt;br&gt;
-"For customers residing outside of available areas for international delivery, our products are available at GeekJack as well."
-&lt;br&gt;
-"The merch sales on Geek Jack will begin at 6 PM (JST), September 28, 2023. Please wait for a little more."</t>
-  </si>
-  <si>
     <t>hololive friends with u Kureiji Ollie</t>
   </si>
   <si>
     <t>img/ID36.2</t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Kureiji Ollie"
-&lt;br&gt;
-"Size: Approx. H215×W350×D120mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t>hololive friends with u Anya Melfissa</t>
+  </si>
+  <si>
+    <t>img/ID37.2</t>
+  </si>
+  <si>
+    <t>hololive friends with u Moona Hoshinova</t>
+  </si>
+  <si>
+    <t>img/ID38.2</t>
+  </si>
+  <si>
+    <t>Starting Voice - Shiori Novella</t>
+  </si>
+  <si>
+    <t>img/ID39.2</t>
+  </si>
+  <si>
+    <t>Starting Voice - Nerissa Ravencroft</t>
+  </si>
+  <si>
+    <t>img/ID40.2</t>
+  </si>
+  <si>
+    <t>Starting Voice - Todoroki Hajime</t>
+  </si>
+  <si>
+    <t>img/ID41.2</t>
+  </si>
+  <si>
+    <t>Starting Voice - Ouro Kronii</t>
+  </si>
+  <si>
+    <t>img/ID42.2</t>
+  </si>
+  <si>
+    <t>Starting Voice - Ceres Fauna</t>
+  </si>
+  <si>
+    <t>img/ID43.2</t>
+  </si>
+  <si>
+    <t>Starting Voice - Nanashi Mumei</t>
+  </si>
+  <si>
+    <t>img/ID44.2</t>
+  </si>
+  <si>
+    <t>hololive friends with u Takanashi Kiara</t>
+  </si>
+  <si>
+    <t>img/ID45.2</t>
+  </si>
+  <si>
+    <t>hololive friends with u Mori Calliope</t>
+  </si>
+  <si>
+    <t>img/ID46.2</t>
+  </si>
+  <si>
+    <t>hololive friends with u Ninomae Ina'nis</t>
+  </si>
+  <si>
+    <t>img/ID47.2</t>
+  </si>
+  <si>
+    <t>Starting Voice - IRyS</t>
+  </si>
+  <si>
+    <t>img/ID48.2</t>
+  </si>
+  <si>
+    <t>Starting Voice - Hakos Baelz</t>
+  </si>
+  <si>
+    <t>img/ID49.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Kazama Iroha
+&lt;br&gt;
+Size: Approx. H220×W175×D130mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Kazama Iroha"
-&lt;br&gt;
-"Size: Approx. H220×W175×D130mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t>For the precautions and the list of currently available areas for international delivery
+&lt;br&gt;
+For customers residing outside of available areas for international delivery, our products are available at GeekJack as well.
+The merch sales on Geek Jack will begin at 18 PM (JST), December 26, 2022. Please wait for a little more.</t>
+  </si>
+  <si>
+    <t>In case you purchased a product together with the made-to-order products or other products with the specified shipping period, your parcel will be shipped once all the purchased products are ready to be shipped.
+&lt;br&gt;
+Product image for illustration purposes only. Actual product may vary.
+&lt;br&gt;
+Actual product color may vary depending on your display of use.
+&lt;br&gt;
+If the product quota is reached, the sales may end without any prior notice.
+&lt;br&gt;
+Please contact us &lt;a href=&gt;here&lt;/a&gt; for the inquiries regarding exchanges and damaged products.
+&lt;br&gt;
+We do not accept any cancel request once the transaction has been made.
+&lt;br&gt;
+If you live in the US, our services are intended for general audiences and are not targeted at children under the age of 13</t>
+  </si>
+  <si>
+    <t>Merch Items
+&lt;br&gt;
+Nekomata Okayu
+&lt;br&gt;
+Size: Approx. H230×W165×D130mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.</t>
+  </si>
+  <si>
+    <t>For the precautions and the list of currently available areas for international delivery
+&lt;br&gt;
+For customers residing outside of available areas for international delivery, our products are available at GeekJack as well.
+&lt;br&gt;
+The merch sales on Geek Jack will begin at 18 PM (JST), February 27, 2023. Please wait for a little more.</t>
+  </si>
+  <si>
+    <t>Merch Items
+&lt;br&gt;
+Shirakami Fubuki
+&lt;br&gt;
+Size: Approx. H220×W170×D170mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.</t>
+  </si>
+  <si>
+    <t>For the precautions and the list of currently available areas for international delivery
+&lt;br&gt;
+For customers residing outside of available areas for international delivery, our products are available at GeekJack as well.
+&lt;br&gt;
+The merch sales on Geek Jack will begin at 6 PM (JST), May 26, 2023. Please wait for a little more.</t>
+  </si>
+  <si>
+    <t>Merch Items
+&lt;br&gt;
+Gawr Gura
+&lt;br&gt;
+Size: Approx. H210×W170×D150mm
+&lt;br&gt;
+Material: Polyester, Nylon
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.</t>
+  </si>
+  <si>
+    <t>For the precautions and the list of currently available areas for international delivery
+&lt;br&gt;
+For customers residing outside of available areas for international delivery, our products are available at GeekJack as well.
+&lt;br&gt;
+The merch sales on Geek Jack will begin at 6 PM (JST), October 27, 2023. Please wait for a little more.</t>
+  </si>
+  <si>
+    <t>Merch Items
+&lt;br&gt;
+Watson Amelia 
+&lt;br&gt;
+Size: Approx. H205×W140×D110mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.</t>
+  </si>
+  <si>
+    <t>Merch Items
+&lt;br&gt;
+AZKi
+&lt;br&gt;
+Size: Approx. H200×W160×D125mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.</t>
+  </si>
+  <si>
+    <t>For the precautions and the list of currently available areas for international delivery
+&lt;br&gt;
+For customers residing outside of available areas for international delivery, our products are available at GeekJack as well.
+&lt;br&gt;
+The merch sales on Geek Jack will begin at 6 PM (JST), July 14, 2023. Please wait for a little more.</t>
+  </si>
+  <si>
+    <t>Content
+&lt;br&gt;
+Self-introduction
+&lt;br&gt;
+Good Morning Voice 
+&lt;br&gt;
+Good Night Voice
+&lt;br&gt;
+Notification Voice
+&lt;br&gt;
+Unique Short Voice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Inugami Korone
+&lt;br&gt;
+Size: Approx. H210×W180×D125mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t>"Merch Items"
-&lt;br&gt;
-"Nekomata Okayu"
-&lt;br&gt;
-"Size: Approx. H230×W165×D130mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."</t>
-  </si>
-  <si>
-    <t>"Merch Items"
-&lt;br&gt;
-"Shirakami Fubuki"
-&lt;br&gt;
-"Size: Approx. H220×W170×D170mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."</t>
-  </si>
-  <si>
-    <t>"Merch Items"
-&lt;br&gt;
-"Gawr Gura"
-&lt;br&gt;
-"Size: Approx. H210×W170×D150mm"
-&lt;br&gt;
-"Material: Polyester, Nylon"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."</t>
-  </si>
-  <si>
-    <t>"Merch Items"
-&lt;br&gt;
-"Watson Amelia "
-&lt;br&gt;
-"Size: Approx. H205×W140×D110mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."</t>
-  </si>
-  <si>
-    <t>"Merch Items"
-&lt;br&gt;
-"AZKi"
-&lt;br&gt;
-"Size: Approx. H200×W160×D125mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Inugami Korone"
-&lt;br&gt;
-"Size: Approx. H210×W180×D125mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t>For the precautions and the list of currently available areas for international delivery
+&lt;br&gt;
+For customers residing outside of available areas for international delivery, our products are available at GeekJack as well.
+The merch sales on Geek Jack will begin at 18 PM (JST), February 27, 2023. Please wait for a little more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Hoshimachi Suisei
+&lt;br&gt;
+Size: Approx. H195×W145×D120mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Hoshimachi Suisei"
-&lt;br&gt;
-"Size: Approx. H195×W145×D120mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Minato Aqua
+&lt;br&gt;
+Size: Approx. H225×W240×D130mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Minato Aqua"
-&lt;br&gt;
-"Size: Approx. H225×W240×D130mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t>For the precautions and the list of currently available areas for international delivery
+&lt;br&gt;
+For customers residing outside of available areas for international delivery, our products are available at GeekJack as well.
+The merch sales on Geek Jack will begin at 6 PM (JST), May 26, 2023. Please wait for a little more.</t>
+  </si>
+  <si>
+    <t>Merch Items
+&lt;br&gt;
+Robocosan
+&lt;br&gt;
+Size: Approx. H200×W145×D120mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Natsuiro Matsuri
+&lt;br&gt;
+Size: Approx. H220×W190×D130mm
+&lt;br&gt;
+Material: Polyester, Nylon
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t>"Merch Items"
-&lt;br&gt;
-"Robocosan"
-&lt;br&gt;
-"Size: Approx. H200×W145×D120mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Natsuiro Matsuri"
-&lt;br&gt;
-"Size: Approx. H220×W190×D130mm"
-&lt;br&gt;
-"Material: Polyester, Nylon"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Yozora Mel
+&lt;br&gt;
+Size: Approx. H215×W160×D130mm
+&lt;br&gt;
+Material: Polyester, Nylon
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Yozora Mel"
-&lt;br&gt;
-"Size: Approx. H215×W160×D130mm"
-&lt;br&gt;
-"Material: Polyester, Nylon"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t>For the precautions and the list of currently available areas for international delivery
+&lt;br&gt;
+For customers residing outside of available areas for international delivery, our products are available at GeekJack as well.
+&lt;br&gt;
+The merch sales on Geek Jack will begin at 18 PM (JST), March 27, 2023. Please wait for a little more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Yuzuki Choco
+&lt;br&gt;
+Size: Approx. H215×W175×D110mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Yuzuki Choco"
-&lt;br&gt;
-"Size: Approx. H215×W175×D110mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t>For the precautions and the list of currently available areas for international delivery
+&lt;br&gt;
+For customers residing outside of available areas for international delivery, our products are available at GeekJack as well.
+&lt;br&gt;
+The merch sales on Geek Jack will begin at 18 PM (JST), December 26, 2022. Please wait for a little more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Oozora Subaru
+&lt;br&gt;
+Size: Approx. H210×W140×D115mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Oozora Subaru"
-&lt;br&gt;
-"Size: Approx. H210×W140×D115mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t>For the precautions and the list of currently available areas for international delivery
+&lt;br&gt;
+For customers residing outside of available areas for international delivery, our products are available at GeekJack as well.
+&lt;br&gt;
+The merch sales on Geek Jack will begin at 6 PM (JST), April 27, 2023. Please wait for a little more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Nakiri Ayame
+&lt;br&gt;
+Size: Approx. H220×W180×D110mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Nakiri Ayame"
-&lt;br&gt;
-"Size: Approx. H220×W180×D110mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Usada Pekora
+&lt;br&gt;
+Size: Approx. H270×W280×D120mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Usada Pekora"
-&lt;br&gt;
-"Size: Approx. H270×W280×D120mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Amane Kanata
+&lt;br&gt;
+Size: Approx. H200×W150×D125mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Amane Kanata"
-&lt;br&gt;
-"Size: Approx. H200×W150×D125mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Tokoyami Towa
+&lt;br&gt;
+Size: Approx. H250×W200×D110mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Tokoyami Towa"
-&lt;br&gt;
-"Size: Approx. H250×W200×D110mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Yukihana Lamy
+&lt;br&gt;
+Size: Approx. H235×W175×D120mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Yukihana Lamy"
-&lt;br&gt;
-"Size: Approx. H235×W175×D120mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Momosuzu Nene
+&lt;br&gt;
+Size: Approx. H200×W190×D140mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Momosuzu Nene"
-&lt;br&gt;
-"Size: Approx. H200×W190×D140mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Shishiro Botan
+&lt;br&gt;
+Size: Approx. H220×W210×D120mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Shishiro Botan"
-&lt;br&gt;
-"Size: Approx. H220×W210×D120mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Takane Lui
+&lt;br&gt;
+Size: Approx. H210×W160×D120mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Takane Lui"
-&lt;br&gt;
-"Size: Approx. H210×W160×D120mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Sakamata Chloe
+&lt;br&gt;
+Size: Approx. H210×W170×D120mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Sakamata Chloe"
-&lt;br&gt;
-"Size: Approx. H210×W170×D120mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Tokino Sora
+&lt;br&gt;
+Size: Approx. H200×W125×D95mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Tokino Sora"
-&lt;br&gt;
-"Size: Approx. H200×W125×D95mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Kobo Kanaeru
+&lt;br&gt;
+Size: Approx. H220×W180×D120mm
+&lt;br&gt;
+Material: Polyester, Nylon, TPU
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Kobo Kanaeru"
-&lt;br&gt;
-"Size: Approx. H220×W180×D120mm"
-&lt;br&gt;
-"Material: Polyester, Nylon, TPU"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t>For the precautions and the list of currently available areas for international delivery
+&lt;br&gt;
+For customers residing outside of available areas for international delivery, our products are available at GeekJack as well.
+&lt;br&gt;
+The merch sales on Geek Jack will begin at 6 PM (JST), November 27, 2023. Please wait for a little more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Kaela Kovalskia
+&lt;br&gt;
+Size: Approx. H200×W160×D115mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Kaela Kovalskia"
-&lt;br&gt;
-"Size: Approx. H200×W160×D115mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Airani Iofifteen
+&lt;br&gt;
+Size: Approx. H230×W150×D100mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Airani Iofifteen"
-&lt;br&gt;
-"Size: Approx. H230×W150×D100mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t>For the precautions and the list of currently available areas for international delivery
+&lt;br&gt;
+For customers residing outside of available areas for international delivery, our products are available at GeekJack as well.
+&lt;br&gt;
+The merch sales on Geek Jack will begin at 6 PM (JST), September 28, 2023. Please wait for a little more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Kureiji Ollie
+&lt;br&gt;
+Size: Approx. H215×W350×D120mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t>hololive friends with u Anya Melfissa</t>
-  </si>
-  <si>
-    <t>img/ID37.2</t>
-  </si>
-  <si>
-    <t>hololive friends with u Moona Hoshinova</t>
-  </si>
-  <si>
-    <t>img/ID38.2</t>
-  </si>
-  <si>
-    <t>Starting Voice - Shiori Novella</t>
-  </si>
-  <si>
-    <t>img/ID39.2</t>
-  </si>
-  <si>
-    <t>Starting Voice - Nerissa Ravencroft</t>
-  </si>
-  <si>
-    <t>img/ID40.2</t>
-  </si>
-  <si>
-    <t>Starting Voice - Todoroki Hajime</t>
-  </si>
-  <si>
-    <t>img/ID41.2</t>
-  </si>
-  <si>
-    <t>Starting Voice - Ouro Kronii</t>
-  </si>
-  <si>
-    <t>img/ID42.2</t>
-  </si>
-  <si>
-    <t>Starting Voice - Ceres Fauna</t>
-  </si>
-  <si>
-    <t>img/ID43.2</t>
-  </si>
-  <si>
-    <t>Starting Voice - Nanashi Mumei</t>
-  </si>
-  <si>
-    <t>img/ID44.2</t>
-  </si>
-  <si>
-    <t>hololive friends with u Takanashi Kiara</t>
-  </si>
-  <si>
-    <t>img/ID45.2</t>
-  </si>
-  <si>
-    <t>hololive friends with u Mori Calliope</t>
-  </si>
-  <si>
-    <t>img/ID46.2</t>
-  </si>
-  <si>
-    <t>hololive friends with u Ninomae Ina'nis</t>
-  </si>
-  <si>
-    <t>img/ID47.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Anya Melfissa"
-&lt;br&gt;
-"Size: Approx. H215×W190×D125mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Anya Melfissa
+&lt;br&gt;
+Size: Approx. H215×W190×D125mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Moona Hoshinova"
-&lt;br&gt;
-"Size: Approx. H205×W200×D120mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Moona Hoshinova
+&lt;br&gt;
+Size: Approx. H205×W200×D120mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Takanashi Kiara"
-&lt;br&gt;
-"Size: Approx. H230×W170×D120mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Takanashi Kiara
+&lt;br&gt;
+Size: Approx. H230×W170×D120mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Mori Calliope"
-&lt;br&gt;
-"Size: Approx. H200×W180×D120mm"
-&lt;br&gt;
-"Material: Polyester, Nylon"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Mori Calliope
+&lt;br&gt;
+Size: Approx. H200×W180×D120mm
+&lt;br&gt;
+Material: Polyester, Nylon
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Merch Items"
-&lt;br&gt;
-"Ninomae Ina'nis"
-&lt;br&gt;
-"Size: Approx. H280×W140×D110mm"
-&lt;br&gt;
-"Material: Polyester"
-&lt;br&gt;
-"The purchase limit for this item is set to a maximum of 10 pcs per purchase."
+    <t xml:space="preserve">Merch Items
+&lt;br&gt;
+Ninomae Ina'nis
+&lt;br&gt;
+Size: Approx. H280×W140×D110mm
+&lt;br&gt;
+Material: Polyester
+&lt;br&gt;
+The purchase limit for this item is set to a maximum of 10 pcs per purchase.
 </t>
-  </si>
-  <si>
-    <t>Starting Voice - IRyS</t>
-  </si>
-  <si>
-    <t>img/ID48.2</t>
-  </si>
-  <si>
-    <t>Starting Voice - Hakos Baelz</t>
-  </si>
-  <si>
-    <t>img/ID49.2</t>
   </si>
 </sst>
 </file>
@@ -1410,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B6AE26-1099-4792-891C-2E12187B9A19}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1486,13 +1486,13 @@
         <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>15</v>
@@ -1515,13 +1515,13 @@
         <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>15</v>
@@ -1532,7 +1532,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1541,16 +1541,16 @@
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>15</v>
@@ -1561,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1570,16 +1570,16 @@
         <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>15</v>
@@ -1590,7 +1590,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1599,16 +1599,16 @@
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>15</v>
@@ -1619,7 +1619,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1628,16 +1628,16 @@
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>15</v>
@@ -1648,25 +1648,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -1674,25 +1674,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -1700,25 +1700,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -1735,16 +1735,16 @@
         <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>15</v>
@@ -1755,7 +1755,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -1764,16 +1764,16 @@
         <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>15</v>
@@ -1784,7 +1784,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -1793,16 +1793,16 @@
         <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>15</v>
@@ -1813,25 +1813,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -1839,25 +1839,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -1865,25 +1865,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -1891,25 +1891,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -1917,25 +1917,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>15</v>
@@ -1946,25 +1946,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -1972,25 +1972,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>15</v>
@@ -2001,25 +2001,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>15</v>
@@ -2030,25 +2030,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>15</v>
@@ -2059,25 +2059,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>15</v>
@@ -2088,25 +2088,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>15</v>
@@ -2117,25 +2117,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>15</v>
@@ -2146,25 +2146,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>15</v>
@@ -2175,25 +2175,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>15</v>
@@ -2204,25 +2204,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>15</v>
@@ -2233,25 +2233,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>15</v>
@@ -2262,25 +2262,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>15</v>
@@ -2291,25 +2291,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>15</v>
@@ -2320,25 +2320,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>15</v>
@@ -2349,25 +2349,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>15</v>
@@ -2378,25 +2378,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>15</v>
@@ -2407,25 +2407,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>15</v>
@@ -2436,25 +2436,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>15</v>
@@ -2465,25 +2465,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>15</v>
@@ -2494,25 +2494,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>15</v>
@@ -2523,25 +2523,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>15</v>
@@ -2552,25 +2552,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -2578,25 +2578,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -2604,25 +2604,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -2630,25 +2630,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -2656,25 +2656,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -2682,25 +2682,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -2708,25 +2708,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>15</v>
@@ -2737,25 +2737,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>15</v>
@@ -2766,25 +2766,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L48" s="6" t="s">
         <v>15</v>
@@ -2795,25 +2795,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -2821,25 +2821,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2859,6 +2859,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ABB444E38861AC4C81876E6F3E8F9DC2" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c47a4c0538889866df136963a4e6931">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b35cb00b-5bc1-4cea-9497-e497f40f7ebf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3058ea9681e6b4a6f6023871bcd13293" ns3:_="">
     <xsd:import namespace="b35cb00b-5bc1-4cea-9497-e497f40f7ebf"/>
@@ -3028,15 +3037,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3046,6 +3046,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8BF78D4-8955-4AC7-B907-3123FB80C4C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCEF0F81-31AC-4CB3-A959-1BC8A0C42A58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3059,14 +3067,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8BF78D4-8955-4AC7-B907-3123FB80C4C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
